--- a/data/trans_orig/Q17B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Habitat-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1744513062443608</v>
+        <v>0.176622299674067</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2821622755333211</v>
+        <v>0.2833893722555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2886162065456906</v>
+        <v>0.2936407502312466</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1702928103345121</v>
+        <v>0.173307216440107</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3144629556162008</v>
+        <v>0.3130676127070703</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.387721755723923</v>
+        <v>0.3830733746661988</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4271198314234262</v>
+        <v>0.4246368622022068</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2643051162893013</v>
+        <v>0.264096083748331</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2513126443464224</v>
+        <v>0.2506818378198782</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3500530482166024</v>
+        <v>0.3469680524015122</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3740972662860913</v>
+        <v>0.3718283328200482</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2330437206973363</v>
+        <v>0.2315441795438758</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2532799521947567</v>
+        <v>0.2475411564133763</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4077237548887481</v>
+        <v>0.4077199979170705</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3967232239709315</v>
+        <v>0.3931006120952644</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2631839452583117</v>
+        <v>0.2648203874694687</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4198022326028247</v>
+        <v>0.4251005065973409</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.498438511749921</v>
+        <v>0.4981534196926796</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.600320666339498</v>
+        <v>0.6107557476553148</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.344107881366</v>
+        <v>0.3461659172624243</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3196718695806147</v>
+        <v>0.3160261360027298</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4364363642663465</v>
+        <v>0.4270285358375095</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.471846511336723</v>
+        <v>0.4714106517767866</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2930861860891856</v>
+        <v>0.291878317154164</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.3751814137386765</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2348894539614964</v>
+        <v>0.2348894539614963</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3752610652580811</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2009971293964009</v>
+        <v>0.2002731728729334</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2590493344949449</v>
+        <v>0.2573356101362882</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3183522099016677</v>
+        <v>0.321622592870602</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1998533532537214</v>
+        <v>0.2010721859566302</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.331342135300108</v>
+        <v>0.3357850507578719</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3842709311867346</v>
+        <v>0.3830358599028981</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4007414185213262</v>
+        <v>0.3976645227125574</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2455717766225643</v>
+        <v>0.2523158470232658</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2756792504920992</v>
+        <v>0.2792290793389261</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3326397181258175</v>
+        <v>0.3312652563141706</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.376667140053359</v>
+        <v>0.3773299349977182</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2357357573598803</v>
+        <v>0.2348527102669321</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2758062451857697</v>
+        <v>0.2707292796665469</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3485909448578747</v>
+        <v>0.3482267408336079</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4531634965910797</v>
+        <v>0.4620414789790042</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2770747825170266</v>
+        <v>0.2775604051360775</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4242423293324054</v>
+        <v>0.4295857454755477</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4719160695504807</v>
+        <v>0.4714507259410916</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.545544332536061</v>
+        <v>0.5402762238047137</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3116300093544361</v>
+        <v>0.3149610714827488</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3362334141453289</v>
+        <v>0.33803109052242</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3944847705049696</v>
+        <v>0.3954352615526486</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4767661015662655</v>
+        <v>0.4663238313375279</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2875399250371083</v>
+        <v>0.2854825126480932</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.3722089453083824</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2946625095750368</v>
+        <v>0.2946625095750367</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3148435384602361</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2327219737286318</v>
+        <v>0.2359000744593106</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.237137158211136</v>
+        <v>0.2417368358387909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2150571356140858</v>
+        <v>0.2196000202886946</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.193255310516658</v>
+        <v>0.1943417830109918</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2973805866973889</v>
+        <v>0.299276912687209</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3122671111540358</v>
+        <v>0.3143906961192025</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3246745077175566</v>
+        <v>0.3210972991847138</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2519827478803471</v>
+        <v>0.2528110981848462</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2787423254954275</v>
+        <v>0.2793350535799854</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2885662446430363</v>
+        <v>0.2901019821191043</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2854783086219765</v>
+        <v>0.2845778635360039</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2347002671998994</v>
+        <v>0.2335068907396094</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3917774246189324</v>
+        <v>0.4007997025591067</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3353684199796785</v>
+        <v>0.3303353917564034</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3019644209341913</v>
+        <v>0.3062748893660503</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.313032953621998</v>
+        <v>0.3120599930536532</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3928734607672009</v>
+        <v>0.3961076396688082</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4052408898336182</v>
+        <v>0.4050240496098308</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.433038098988034</v>
+        <v>0.434403298615579</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3668913970709273</v>
+        <v>0.3587876427450895</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3634248022633971</v>
+        <v>0.3642823805344832</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3523949508216195</v>
+        <v>0.3543824910586658</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3556460707360362</v>
+        <v>0.3518806840854934</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3129104630920454</v>
+        <v>0.310507260657273</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2166654808686008</v>
+        <v>0.2162116209744489</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.219606755594684</v>
+        <v>0.2223839548871703</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2500845581530092</v>
+        <v>0.2511168267929467</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2409443961997026</v>
+        <v>0.2399560294687433</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.352618239389781</v>
+        <v>0.3541836722664971</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3780077737807343</v>
+        <v>0.379670658183582</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3103791248913965</v>
+        <v>0.310049235794863</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3728492846529484</v>
+        <v>0.3703444168361313</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2993375759830973</v>
+        <v>0.3000861536301975</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3176845577173911</v>
+        <v>0.3182951123010643</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2962242919682133</v>
+        <v>0.2924660426003339</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3207954164992782</v>
+        <v>0.3217894169651676</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.294403017008483</v>
+        <v>0.3003766489480812</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3145354105195536</v>
+        <v>0.3129191617379067</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3607411060563551</v>
+        <v>0.3612942831081925</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3181414805293983</v>
+        <v>0.318447563997283</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4599895355270799</v>
+        <v>0.4587903116379614</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5097365769728818</v>
+        <v>0.5194013077524974</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4099260201420767</v>
+        <v>0.4061895525441587</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4708087127873091</v>
+        <v>0.4728911752644943</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3670912751279287</v>
+        <v>0.36975056577267</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4001330788119477</v>
+        <v>0.3992697921173169</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3644491879507121</v>
+        <v>0.3634772033585298</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3838009712334771</v>
+        <v>0.3834797705677565</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2223508262355751</v>
+        <v>0.2247945128815714</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2693889954369457</v>
+        <v>0.2695694340333222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2944426338998805</v>
+        <v>0.2942812570537492</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2229922592494844</v>
+        <v>0.2219275606773781</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.349380570992816</v>
+        <v>0.3488840077446005</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.388680487993786</v>
+        <v>0.3907303662003321</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3866222611553609</v>
+        <v>0.3867445570550246</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3091228736294823</v>
+        <v>0.3076235287115126</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2925043637280257</v>
+        <v>0.2938224964240619</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3367263179059801</v>
+        <v>0.3375311644497682</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3490276696376404</v>
+        <v>0.3469184945795845</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2719513437787776</v>
+        <v>0.2714795420397094</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2706638929588864</v>
+        <v>0.2698081180901004</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3177432287227003</v>
+        <v>0.3162802719795306</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3521187748867936</v>
+        <v>0.3494214841120754</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2656608419511788</v>
+        <v>0.2664636409785814</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3993892187775253</v>
+        <v>0.398031113045364</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4470047290488278</v>
+        <v>0.4437975952008312</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.450713340696379</v>
+        <v>0.4517997138827833</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.35342270208973</v>
+        <v>0.3536737395644183</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3277968356275481</v>
+        <v>0.3278481728783765</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3738905798963744</v>
+        <v>0.3742463302094531</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3928256171925845</v>
+        <v>0.3913707732952462</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.304122857192486</v>
+        <v>0.3023123328817635</v>
       </c>
     </row>
     <row r="19">
